--- a/ExcelTest/Resources/Imports/Normal.xlsx
+++ b/ExcelTest/Resources/Imports/Normal.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\ProjectDictionary\FreshCattle\ExcelTest\Resources\Imports\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C15D139A-48DA-4B71-862F-F3DF36BEF578}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B142104E-D912-44E0-9FFB-A0319B91F82B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="960" yWindow="2865" windowWidth="23730" windowHeight="10530" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>性别</t>
   </si>
@@ -80,6 +80,18 @@
   </si>
   <si>
     <t>刘阳11111111111111111111111111111111111111</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>zhong</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>guo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>renhe</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -126,9 +138,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -409,10 +424,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H2"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -475,7 +490,30 @@
         <v>10</v>
       </c>
     </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A3" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3" s="2"/>
+      <c r="D3" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E3" s="2"/>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A4" s="2"/>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
+    </row>
   </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="D3:E4"/>
+    <mergeCell ref="A3:A4"/>
+  </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
